--- a/result/zoom.xlsx
+++ b/result/zoom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>307</v>
+        <v>448</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>451</v>
+        <v>343</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH/TURK 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 1шт</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH/TURK 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 2шт</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH/TURK 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 3шт</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH/TURK 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 1шт</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH/TURK 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 2шт</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH/TURK 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 20кг 1шт</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA/SALM 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 20кг 1шт</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>421</v>
+        <v>325</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA/SALM 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 1шт</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA/SALM 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 2шт</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA/SALM 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 3шт</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA/SALM 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 1шт</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA/SALM 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 2шт</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary TUNA/SALM 2кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 1шт</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>474</v>
+        <v>320</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary TUNA/SALM 2кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 2шт</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>479</v>
+        <v>335</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary TUNA/SALM 2кг 3шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 3шт</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>312</v>
+        <v>452</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary TUNA/SALM 7кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 1шт</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary TUNA/SALM 7кг 2шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 2шт</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary TUNA/SALM 20кг 1шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 20кг 1шт</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 01шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 06шт</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 06шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 12шт</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 18шт</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 18шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 24шт</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 30шт</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 30шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 36шт</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 06шт</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 01шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 12шт</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 06шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 18шт</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 24шт</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 18шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 30шт</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 36шт</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>475</v>
+        <v>372</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 30шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 06шт</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
@@ -1463,12 +1463,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 12шт</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>480</v>
+        <v>371</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon/Shrimps 415г 01шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 18шт</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon/Shrimps 415г 06шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 24шт</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon/Shrimps 415г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 30шт</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon/Shrimps 415г 18шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 36шт</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon/Shrimps 415г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 12шт</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon/Shrimps 415г 30шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 24шт</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon/Shrimps 415г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 36шт</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 01шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 48шт</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 12шт</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 24шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 24шт</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>332</v>
+        <v>444</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 36шт</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>466</v>
+        <v>403</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
@@ -1727,12 +1727,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 48шт</t>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 48шт</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 01шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 12шт</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 12шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 24шт</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 24шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 36шт</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 36шт</t>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 48шт</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 48шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 12шт</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>483</v>
+        <v>395</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 01шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 24шт</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 12шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 36шт</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 24шт</t>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 48шт</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 36шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 12шт</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 48шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 24шт</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>310</v>
+        <v>461</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 01шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 36шт</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 12шт</t>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 48шт</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 24шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 20кг 1шт</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 36шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 48шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 01шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>319</v>
+        <v>412</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 12шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 15кг 1шт</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 1шт</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>460</v>
+        <v>368</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 2шт</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 48шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 3шт</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH/RICE 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA/RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA/RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA/RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 20кг 1шт</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA/RICE 15кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 15кг 1шт</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb/Rice 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb/Rice 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb/Rice 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA/RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 20кг 1шт</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA/RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР CHICKEN 20кг 1шт</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA/RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 15кг 1шт</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb/Rice 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 20кг 1шт</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK/RICE 15кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 1шт</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
@@ -2475,12 +2475,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK/RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 2шт</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
@@ -2497,12 +2497,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK/RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 3шт</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>334</v>
+        <v>463</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK/RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 20кг 1шт</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>462</v>
+        <v>315</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA/RICE 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР CHICKEN 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Lamb/Rice 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>316</v>
+        <v>418</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 1шт</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 2шт</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 3шт</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Perfomance 20кг 1шт</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM/RICE 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Regular 20кг 1шт</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM/RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 03шт</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM/RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 06шт</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM/RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 09шт</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH/RICE 3кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 12шт</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>436</v>
+        <v>327</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH/RICE 3кг 2шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 03шт</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH/RICE 3кг 3шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 06шт</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Perfomance 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 09шт</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Regular 20кг 1шт</t>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 12шт</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef/Rice 1250г 01шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 03шт</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>303</v>
+        <v>455</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef/Rice 1250г 03шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 06шт</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef/Rice 1250г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 09шт</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef/Rice 1250г 09шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 12шт</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef/Rice 1250г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 06шт</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>368</v>
+        <v>453</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР КР Pork 1250г 01шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 12шт</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>465</v>
+        <v>390</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР КР Pork 1250г 03шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 18шт</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>478</v>
+        <v>374</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР КР Pork 1250г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 24шт</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР КР Pork 1250г 09шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 30шт</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР КР Pork 1250г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 36шт</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>419</v>
+        <v>311</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb/Rice 1250г 01шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 06шт</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb/Rice 1250г 03шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 12шт</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>447</v>
+        <v>334</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb/Rice 1250г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 18шт</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb/Rice 1250г 09шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 24шт</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb/Rice 1250г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 30шт</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 01шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 36шт</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>355</v>
+        <v>436</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 06шт</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 12шт</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 18шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 18шт</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>306</v>
+        <v>421</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 24шт</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 30шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 30шт</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>455</v>
+        <v>323</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
@@ -3355,12 +3355,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 36шт</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna/Salmon 415г 01шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 06шт</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>473</v>
+        <v>376</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna/Salmon 415г 06шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 12шт</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna/Salmon 415г 12шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 18шт</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna/Salmon 415г 18шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 24шт</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>442</v>
+        <v>332</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna/Salmon 415г 24шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 30шт</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>337</v>
+        <v>457</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna/Salmon 415г 30шт</t>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 36шт</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna/Salmon 415г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 12шт</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef/Liver 415г 01шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 24шт</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef/Liver 415г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 36шт</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef/Liver 415г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 48шт</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef/Liver 415г 18шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 12шт</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef/Liver 415г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 24шт</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef/Liver 415г 30шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 36шт</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef/Liver 415г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 48шт</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken/Turk 415г 01шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 12шт</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken/Turk 415г 06шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 24шт</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken/Turk 415г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 36шт</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>448</v>
+        <v>321</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken/Turk 415г 18шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 48шт</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken/Turk 415г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 12шт</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken/Turk 415г 30шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 24шт</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken/Turk 415г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 36шт</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 01шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 48шт</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>301</v>
+        <v>447</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 12шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 12шт</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 24шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 24шт</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 36шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 36шт</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 48шт</t>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 48шт</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 01шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 12шт</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 12шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 24шт</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 24шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 36шт</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 36шт</t>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 48шт</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
@@ -4037,12 +4037,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 48шт</t>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 12шт</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 01шт</t>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 24шт</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 12шт</t>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 36шт</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
@@ -4103,499 +4103,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 24шт</t>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 48шт</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 36шт</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="n">
-        <v>484</v>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 48шт</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="n">
-        <v>343</v>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 01шт</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="n">
-        <v>367</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="n">
-        <v>472</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="n">
-        <v>470</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="n">
-        <v>461</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="n">
-        <v>391</v>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 01шт</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="n">
-        <v>425</v>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="n">
-        <v>329</v>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="n">
-        <v>377</v>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="n">
-        <v>471</v>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="n">
-        <v>360</v>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Wild 100г 01шт</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="n">
-        <v>357</v>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Wild 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="n">
-        <v>314</v>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Wild 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="n">
-        <v>485</v>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Wild 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="n">
-        <v>383</v>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Wild 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="n">
-        <v>423</v>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Wild 100г 01шт</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="n">
-        <v>428</v>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Wild 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="n">
-        <v>378</v>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Wild 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="n">
-        <v>446</v>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Wild 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="n">
-        <v>351</v>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Wild 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="n">
-        <v>335</v>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>

--- a/result/zoom.xlsx
+++ b/result/zoom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заполнение обязательных ячеек  </t>
+          <t>Заполнение обязательных ячеек</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Заполнение обязательных ячеек</t>
+          <t>Цена с НДС</t>
         </is>
       </c>
     </row>
@@ -473,19 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 01шт</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8009470299961</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>366</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,19 +499,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 06шт</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8009470299961</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>448</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -517,19 +525,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 12шт</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8009470299961</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>330</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -539,19 +551,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 18шт</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8009470299961</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>446</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -561,19 +577,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 24шт</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8009470299961</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>343</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -583,19 +603,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 30шт</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8009470299961</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>419</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -605,19 +629,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Beef 400г 36шт</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8009470299961</t>
+        </is>
+      </c>
       <c r="D8" t="n">
-        <v>386</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -627,18 +655,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8009470310017</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>319</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>780</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>176.47</v>
       </c>
     </row>
     <row r="10">
@@ -652,15 +686,21 @@
           <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 1шт</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8009470297158</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>441</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>727</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>25.3</v>
       </c>
     </row>
     <row r="11">
@@ -674,15 +714,21 @@
           <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 2шт</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8009470297158</t>
+        </is>
+      </c>
       <c r="D11" t="n">
-        <v>416</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>585</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>25.3</v>
       </c>
     </row>
     <row r="12">
@@ -696,15 +742,21 @@
           <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг 3шт</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8009470297158</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>439</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>990</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>25.3</v>
       </c>
     </row>
     <row r="13">
@@ -718,15 +770,21 @@
           <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 1шт</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8009470297264</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>462</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>598</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -740,15 +798,21 @@
           <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 7кг 2шт</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8009470297264</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>437</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>701</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -759,18 +823,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete CH TURK 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8009470310000</t>
+        </is>
+      </c>
       <c r="D15" t="n">
-        <v>363</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>790</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>205.67</v>
       </c>
     </row>
     <row r="16">
@@ -781,18 +851,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8009470297165</t>
+        </is>
+      </c>
       <c r="D16" t="n">
-        <v>465</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>696</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>27.07</v>
       </c>
     </row>
     <row r="17">
@@ -803,18 +879,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 2шт</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8009470297165</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>325</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>532</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>27.07</v>
       </c>
     </row>
     <row r="18">
@@ -825,18 +907,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 3шт</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8009470297165</t>
+        </is>
+      </c>
       <c r="D18" t="n">
-        <v>417</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>548</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>27.07</v>
       </c>
     </row>
     <row r="19">
@@ -847,18 +935,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 1шт</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8009470297295</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>337</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>675</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>77.83</v>
       </c>
     </row>
     <row r="20">
@@ -869,18 +963,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 2шт</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8009470297295</t>
+        </is>
+      </c>
       <c r="D20" t="n">
-        <v>429</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>719</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>77.83</v>
       </c>
     </row>
     <row r="21">
@@ -891,19 +991,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 06шт</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8009470300735</t>
+        </is>
+      </c>
       <c r="D21" t="n">
-        <v>392</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -913,19 +1017,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Kitten 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 12шт</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8009470300735</t>
+        </is>
+      </c>
       <c r="D22" t="n">
-        <v>380</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -935,19 +1043,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 1шт</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 18шт</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8009470300735</t>
+        </is>
+      </c>
       <c r="D23" t="n">
-        <v>367</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -957,19 +1069,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 2шт</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 24шт</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8009470300735</t>
+        </is>
+      </c>
       <c r="D24" t="n">
-        <v>393</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -979,19 +1095,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 2кг 3шт</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 30шт</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8009470300735</t>
+        </is>
+      </c>
       <c r="D25" t="n">
-        <v>399</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1001,19 +1121,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 1шт</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 36шт</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8009470300735</t>
+        </is>
+      </c>
       <c r="D26" t="n">
-        <v>312</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1023,18 +1147,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Complete TUNA SALM 7кг 2шт</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8009470310062</t>
+        </is>
+      </c>
       <c r="D27" t="n">
-        <v>342</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>190.58</v>
       </c>
     </row>
     <row r="28">
@@ -1048,15 +1178,21 @@
           <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 1шт</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8009470297189</t>
+        </is>
+      </c>
       <c r="D28" t="n">
-        <v>320</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>896</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="29">
@@ -1070,15 +1206,21 @@
           <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 2шт</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8009470297189</t>
+        </is>
+      </c>
       <c r="D29" t="n">
-        <v>335</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>998</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="30">
@@ -1092,15 +1234,21 @@
           <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг 3шт</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8009470297189</t>
+        </is>
+      </c>
       <c r="D30" t="n">
-        <v>452</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>816</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="31">
@@ -1114,15 +1262,21 @@
           <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 1шт</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8009470297301</t>
+        </is>
+      </c>
       <c r="D31" t="n">
-        <v>322</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>959</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>68.34999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1136,15 +1290,21 @@
           <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг 2шт</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8009470297301</t>
+        </is>
+      </c>
       <c r="D32" t="n">
-        <v>410</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>782</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>68.34999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1155,18 +1315,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Urinary МКБ 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8009470300919</t>
+        </is>
+      </c>
       <c r="D33" t="n">
-        <v>370</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>744</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="34">
@@ -1177,18 +1343,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 06шт</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8009470300919</t>
+        </is>
+      </c>
       <c r="D34" t="n">
-        <v>464</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>560</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="35">
@@ -1199,18 +1371,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 12шт</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8009470300919</t>
+        </is>
+      </c>
       <c r="D35" t="n">
-        <v>442</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>552</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="36">
@@ -1221,18 +1399,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 18шт</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8009470300919</t>
+        </is>
+      </c>
       <c r="D36" t="n">
-        <v>328</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>868</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="37">
@@ -1243,18 +1427,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 24шт</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8009470300926</t>
+        </is>
+      </c>
       <c r="D37" t="n">
-        <v>460</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>819</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="38">
@@ -1265,18 +1455,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 30шт</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8009470300926</t>
+        </is>
+      </c>
       <c r="D38" t="n">
-        <v>381</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>979</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="39">
@@ -1287,18 +1483,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Beef 400г 36шт</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8009470300926</t>
+        </is>
+      </c>
       <c r="D39" t="n">
-        <v>425</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>646</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="40">
@@ -1309,18 +1511,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 06шт</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8009470300926</t>
+        </is>
+      </c>
       <c r="D40" t="n">
-        <v>456</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>510</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="41">
@@ -1331,18 +1539,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 12шт</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 1шт</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8009470297271</t>
+        </is>
+      </c>
       <c r="D41" t="n">
-        <v>459</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>511</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>68.34999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1353,18 +1567,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 18шт</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Beef 7кг 2шт</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>8009470297271</t>
+        </is>
+      </c>
       <c r="D42" t="n">
-        <v>450</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>679</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>68.34999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1375,18 +1595,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 24шт</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>8009470310048</t>
+        </is>
+      </c>
       <c r="D43" t="n">
-        <v>308</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>677</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>176.04</v>
       </c>
     </row>
     <row r="44">
@@ -1397,18 +1623,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 30шт</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>8009470297172</t>
+        </is>
+      </c>
       <c r="D44" t="n">
-        <v>318</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>677</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="45">
@@ -1419,18 +1651,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 36шт</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 2шт</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>8009470297172</t>
+        </is>
+      </c>
       <c r="D45" t="n">
-        <v>372</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>968</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="46">
@@ -1441,18 +1679,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 06шт</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг 3шт</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>8009470297172</t>
+        </is>
+      </c>
       <c r="D46" t="n">
-        <v>414</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>545</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>25.57</v>
       </c>
     </row>
     <row r="47">
@@ -1463,19 +1707,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 12шт</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 06шт</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8009470299954</t>
+        </is>
+      </c>
       <c r="D47" t="n">
-        <v>371</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1485,19 +1733,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 18шт</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 12шт</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>8009470299954</t>
+        </is>
+      </c>
       <c r="D48" t="n">
-        <v>306</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1507,19 +1759,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 24шт</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 18шт</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8009470299954</t>
+        </is>
+      </c>
       <c r="D49" t="n">
-        <v>411</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1529,19 +1785,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 30шт</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 24шт</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8009470299954</t>
+        </is>
+      </c>
       <c r="D50" t="n">
-        <v>433</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1551,19 +1811,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г 36шт</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 30шт</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>8009470299954</t>
+        </is>
+      </c>
       <c r="D51" t="n">
-        <v>350</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1573,19 +1837,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г 36шт</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>8009470299954</t>
+        </is>
+      </c>
       <c r="D52" t="n">
-        <v>397</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1595,18 +1863,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 1шт</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8009470297288</t>
+        </is>
+      </c>
       <c r="D53" t="n">
-        <v>401</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>983</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>67.37</v>
       </c>
     </row>
     <row r="54">
@@ -1617,18 +1891,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Turkey 7кг 2шт</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>8009470297288</t>
+        </is>
+      </c>
       <c r="D54" t="n">
-        <v>341</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>823</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>67.37</v>
       </c>
     </row>
     <row r="55">
@@ -1639,18 +1919,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Говядина Овощи 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>8009470300902</t>
+        </is>
+      </c>
       <c r="D55" t="n">
-        <v>415</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>649</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="56">
@@ -1661,18 +1947,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>8009470300902</t>
+        </is>
+      </c>
       <c r="D56" t="n">
-        <v>449</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>576</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="57">
@@ -1683,18 +1975,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>8009470300902</t>
+        </is>
+      </c>
       <c r="D57" t="n">
-        <v>444</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>778</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="58">
@@ -1705,18 +2003,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8009470300902</t>
+        </is>
+      </c>
       <c r="D58" t="n">
-        <v>403</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>743</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="59">
@@ -1727,18 +2031,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР Кролик Овощи 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>8009470310031</t>
+        </is>
+      </c>
       <c r="D59" t="n">
-        <v>454</v>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>589</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>193.86</v>
       </c>
     </row>
     <row r="60">
@@ -1749,18 +2059,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 1шт</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>8009470297134</t>
+        </is>
+      </c>
       <c r="D60" t="n">
-        <v>317</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>726</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>28.26</v>
       </c>
     </row>
     <row r="61">
@@ -1771,18 +2087,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 2шт</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8009470297134</t>
+        </is>
+      </c>
       <c r="D61" t="n">
-        <v>430</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>559</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>28.26</v>
       </c>
     </row>
     <row r="62">
@@ -1793,18 +2115,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 2кг 3шт</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>8009470297134</t>
+        </is>
+      </c>
       <c r="D62" t="n">
-        <v>445</v>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>876</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>28.26</v>
       </c>
     </row>
     <row r="63">
@@ -1815,18 +2143,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 1шт</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>8009470297257</t>
+        </is>
+      </c>
       <c r="D63" t="n">
-        <v>309</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>964</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>77.81999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -1837,18 +2171,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Kitten 7кг 2шт</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>8009470297257</t>
+        </is>
+      </c>
       <c r="D64" t="n">
-        <v>395</v>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>869</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>77.81999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1859,18 +2199,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>8009470300896</t>
+        </is>
+      </c>
       <c r="D65" t="n">
-        <v>407</v>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="66">
@@ -1881,18 +2227,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>8009470300896</t>
+        </is>
+      </c>
       <c r="D66" t="n">
-        <v>329</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>927</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="67">
@@ -1903,18 +2255,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>8009470300896</t>
+        </is>
+      </c>
       <c r="D67" t="n">
-        <v>300</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>916</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="68">
@@ -1925,18 +2283,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ МОЛ Цыпленок 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>8009470300896</t>
+        </is>
+      </c>
       <c r="D68" t="n">
-        <v>426</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>694</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="69">
@@ -1947,18 +2311,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>8009470300889</t>
+        </is>
+      </c>
       <c r="D69" t="n">
-        <v>461</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="70">
@@ -1969,18 +2339,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8009470300889</t>
+        </is>
+      </c>
       <c r="D70" t="n">
-        <v>347</v>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>824</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="71">
@@ -1991,18 +2367,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ЗООМ GMN КОТ ВЗР СТДЗ Тунец Дори 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8009470300889</t>
+        </is>
+      </c>
       <c r="D71" t="n">
-        <v>304</v>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>740</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="72">
@@ -2013,18 +2395,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>ЗООМ GMN КОТ ПОЖ Индейка 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>8009470300889</t>
+        </is>
+      </c>
       <c r="D72" t="n">
-        <v>362</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>944</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="73">
@@ -2035,18 +2423,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 12шт</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>8009470300414</t>
+        </is>
+      </c>
       <c r="D73" t="n">
-        <v>394</v>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>741</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="74">
@@ -2057,18 +2451,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 24шт</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>8009470300414</t>
+        </is>
+      </c>
       <c r="D74" t="n">
-        <v>358</v>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>763</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="75">
@@ -2079,18 +2479,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 36шт</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>8009470300414</t>
+        </is>
+      </c>
       <c r="D75" t="n">
-        <v>412</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>797</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="76">
@@ -2101,18 +2507,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 15кг 1шт</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 48шт</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8009470300414</t>
+        </is>
+      </c>
       <c r="D76" t="n">
-        <v>345</v>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>612</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="77">
@@ -2123,18 +2535,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>8009470300605</t>
+        </is>
+      </c>
       <c r="D77" t="n">
-        <v>368</v>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>859</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="78">
@@ -2145,18 +2563,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>8009470300605</t>
+        </is>
+      </c>
       <c r="D78" t="n">
-        <v>326</v>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>532</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="79">
@@ -2167,18 +2591,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>8009470300605</t>
+        </is>
+      </c>
       <c r="D79" t="n">
-        <v>405</v>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>626</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="80">
@@ -2189,18 +2619,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>8009470300605</t>
+        </is>
+      </c>
       <c r="D80" t="n">
-        <v>313</v>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>864</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="81">
@@ -2211,18 +2647,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 06шт</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>8009470387804</t>
+        </is>
+      </c>
       <c r="D81" t="n">
-        <v>432</v>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>796</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="82">
@@ -2233,18 +2675,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 12шт</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>8009470387804</t>
+        </is>
+      </c>
       <c r="D82" t="n">
-        <v>402</v>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>942</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="83">
@@ -2255,18 +2703,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 18шт</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>8009470387804</t>
+        </is>
+      </c>
       <c r="D83" t="n">
-        <v>355</v>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>842</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="84">
@@ -2277,18 +2731,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 15кг 1шт</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 24шт</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>8009470387804</t>
+        </is>
+      </c>
       <c r="D84" t="n">
-        <v>305</v>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>637</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="85">
@@ -2299,18 +2759,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 30шт</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>8009470387804</t>
+        </is>
+      </c>
       <c r="D85" t="n">
-        <v>307</v>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>679</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="86">
@@ -2321,18 +2787,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 36шт</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>8009470387804</t>
+        </is>
+      </c>
       <c r="D86" t="n">
-        <v>404</v>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>535</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="87">
@@ -2343,18 +2815,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 12шт</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>8009470300445</t>
+        </is>
+      </c>
       <c r="D87" t="n">
-        <v>413</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>751</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="88">
@@ -2365,18 +2843,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 24шт</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>8009470300445</t>
+        </is>
+      </c>
       <c r="D88" t="n">
-        <v>428</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>731</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="89">
@@ -2387,18 +2871,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР CHICKEN 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 36шт</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>8009470300445</t>
+        </is>
+      </c>
       <c r="D89" t="n">
-        <v>391</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="90">
@@ -2409,18 +2899,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 15кг 1шт</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 48шт</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>8009470300445</t>
+        </is>
+      </c>
       <c r="D90" t="n">
-        <v>353</v>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>743</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="91">
@@ -2431,18 +2927,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>8009470005616</t>
+        </is>
+      </c>
       <c r="D91" t="n">
-        <v>316</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>849</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>153.86</v>
       </c>
     </row>
     <row r="92">
@@ -2453,18 +2955,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>8009470386111</t>
+        </is>
+      </c>
       <c r="D92" t="n">
-        <v>351</v>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>952</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="93">
@@ -2475,18 +2983,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>8009470386111</t>
+        </is>
+      </c>
       <c r="D93" t="n">
-        <v>364</v>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>552</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="94">
@@ -2497,18 +3011,24 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>8009470386111</t>
+        </is>
+      </c>
       <c r="D94" t="n">
-        <v>463</v>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>863</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="95">
@@ -2519,18 +3039,24 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 15кг 1шт</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>8009470386258</t>
+        </is>
+      </c>
       <c r="D95" t="n">
-        <v>315</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>899</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>123.92</v>
       </c>
     </row>
     <row r="96">
@@ -2541,18 +3067,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>8009470386012</t>
+        </is>
+      </c>
       <c r="D96" t="n">
-        <v>349</v>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>849</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>27.72</v>
       </c>
     </row>
     <row r="97">
@@ -2563,18 +3095,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8009470386012</t>
+        </is>
+      </c>
       <c r="D97" t="n">
-        <v>389</v>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>925</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>27.72</v>
       </c>
     </row>
     <row r="98">
@@ -2585,18 +3123,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ PORK RICE 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>8009470386012</t>
+        </is>
+      </c>
       <c r="D98" t="n">
-        <v>418</v>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>919</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>27.72</v>
       </c>
     </row>
     <row r="99">
@@ -2607,18 +3151,24 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 1шт</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Perfomance 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8009470006156</t>
+        </is>
+      </c>
       <c r="D99" t="n">
-        <v>310</v>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>803</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>146.78</v>
       </c>
     </row>
     <row r="100">
@@ -2629,18 +3179,24 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 2шт</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Regular 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>8009470006170</t>
+        </is>
+      </c>
       <c r="D100" t="n">
-        <v>382</v>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>519</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>135.42</v>
       </c>
     </row>
     <row r="101">
@@ -2651,18 +3207,24 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 3шт</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>8009470005609</t>
+        </is>
+      </c>
       <c r="D101" t="n">
-        <v>333</v>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>668</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>153.86</v>
       </c>
     </row>
     <row r="102">
@@ -2673,18 +3235,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Perfomance 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>8009470386098</t>
+        </is>
+      </c>
       <c r="D102" t="n">
-        <v>398</v>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>677</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>29.89</v>
       </c>
     </row>
     <row r="103">
@@ -2695,18 +3263,24 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Regular 20кг 1шт</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>8009470386098</t>
+        </is>
+      </c>
       <c r="D103" t="n">
-        <v>438</v>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>956</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>29.89</v>
       </c>
     </row>
     <row r="104">
@@ -2717,18 +3291,24 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 03шт</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>8009470386098</t>
+        </is>
+      </c>
       <c r="D104" t="n">
-        <v>408</v>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>670</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>29.89</v>
       </c>
     </row>
     <row r="105">
@@ -2739,18 +3319,24 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 06шт</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 06шт</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>8009470387880</t>
+        </is>
+      </c>
       <c r="D105" t="n">
-        <v>383</v>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>741</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="106">
@@ -2761,18 +3347,24 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 09шт</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 12шт</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>8009470387880</t>
+        </is>
+      </c>
       <c r="D106" t="n">
-        <v>434</v>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>699</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="107">
@@ -2783,18 +3375,24 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 12шт</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 18шт</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>8009470387880</t>
+        </is>
+      </c>
       <c r="D107" t="n">
-        <v>327</v>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>837</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="108">
@@ -2805,18 +3403,24 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 03шт</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 24шт</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>8009470387880</t>
+        </is>
+      </c>
       <c r="D108" t="n">
-        <v>451</v>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>690</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="109">
@@ -2827,18 +3431,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 06шт</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 30шт</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>8009470387880</t>
+        </is>
+      </c>
       <c r="D109" t="n">
-        <v>340</v>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>838</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="110">
@@ -2849,18 +3459,24 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 09шт</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 36шт</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>8009470387880</t>
+        </is>
+      </c>
       <c r="D110" t="n">
-        <v>346</v>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>839</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="111">
@@ -2871,18 +3487,24 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 12шт</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 12шт</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>8009470300438</t>
+        </is>
+      </c>
       <c r="D111" t="n">
-        <v>359</v>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>884</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="112">
@@ -2893,18 +3515,24 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 03шт</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 24шт</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>8009470300438</t>
+        </is>
+      </c>
       <c r="D112" t="n">
-        <v>455</v>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>897</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="113">
@@ -2915,18 +3543,24 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 06шт</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 36шт</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>8009470300438</t>
+        </is>
+      </c>
       <c r="D113" t="n">
-        <v>424</v>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>829</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="114">
@@ -2937,18 +3571,24 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 09шт</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 48шт</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>8009470300438</t>
+        </is>
+      </c>
       <c r="D114" t="n">
-        <v>365</v>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>833</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="115">
@@ -2959,18 +3599,24 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 12шт</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>8009470300629</t>
+        </is>
+      </c>
       <c r="D115" t="n">
-        <v>422</v>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>992</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="116">
@@ -2981,18 +3627,24 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 06шт</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>8009470300629</t>
+        </is>
+      </c>
       <c r="D116" t="n">
-        <v>453</v>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>655</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="117">
@@ -3003,18 +3655,24 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 12шт</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>8009470300629</t>
+        </is>
+      </c>
       <c r="D117" t="n">
-        <v>390</v>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>964</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="118">
@@ -3025,18 +3683,24 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 18шт</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>8009470300629</t>
+        </is>
+      </c>
       <c r="D118" t="n">
-        <v>374</v>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>929</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="119">
@@ -3047,18 +3711,24 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 24шт</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 03шт</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>8009470387903</t>
+        </is>
+      </c>
       <c r="D119" t="n">
-        <v>373</v>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>704</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>7.93</v>
       </c>
     </row>
     <row r="120">
@@ -3069,18 +3739,24 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 30шт</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 06шт</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>8009470387903</t>
+        </is>
+      </c>
       <c r="D120" t="n">
-        <v>423</v>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>574</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>7.93</v>
       </c>
     </row>
     <row r="121">
@@ -3091,18 +3767,24 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Tripe 400г 36шт</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 09шт</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>8009470387903</t>
+        </is>
+      </c>
       <c r="D121" t="n">
-        <v>311</v>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>874</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>7.93</v>
       </c>
     </row>
     <row r="122">
@@ -3113,18 +3795,24 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 06шт</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Beef Rice 1250г 12шт</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>8009470387903</t>
+        </is>
+      </c>
       <c r="D122" t="n">
-        <v>443</v>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>725</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>7.93</v>
       </c>
     </row>
     <row r="123">
@@ -3135,18 +3823,24 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 12шт</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР CHICKEN 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>8009470005647</t>
+        </is>
+      </c>
       <c r="D123" t="n">
-        <v>334</v>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>952</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>147.23</v>
       </c>
     </row>
     <row r="124">
@@ -3157,18 +3851,24 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 18шт</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 03шт</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>8009470387941</t>
+        </is>
+      </c>
       <c r="D124" t="n">
-        <v>314</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>718</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>7.96</v>
       </c>
     </row>
     <row r="125">
@@ -3179,18 +3879,24 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 24шт</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 06шт</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>8009470387941</t>
+        </is>
+      </c>
       <c r="D125" t="n">
-        <v>378</v>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>679</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>7.96</v>
       </c>
     </row>
     <row r="126">
@@ -3201,18 +3907,24 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 30шт</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 09шт</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>8009470387941</t>
+        </is>
+      </c>
       <c r="D126" t="n">
-        <v>384</v>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>785</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>7.96</v>
       </c>
     </row>
     <row r="127">
@@ -3223,18 +3935,24 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г 36шт</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР КР Pork 1250г 12шт</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>8009470387941</t>
+        </is>
+      </c>
       <c r="D127" t="n">
-        <v>436</v>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>613</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>7.96</v>
       </c>
     </row>
     <row r="128">
@@ -3245,18 +3963,24 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 06шт</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>8009470005678</t>
+        </is>
+      </c>
       <c r="D128" t="n">
-        <v>303</v>
-      </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>899</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>137.64</v>
       </c>
     </row>
     <row r="129">
@@ -3267,18 +3991,24 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 12шт</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>8009470386050</t>
+        </is>
+      </c>
       <c r="D129" t="n">
-        <v>354</v>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>959</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -3289,18 +4019,24 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 18шт</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>8009470386050</t>
+        </is>
+      </c>
       <c r="D130" t="n">
-        <v>421</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>909</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="131">
@@ -3311,18 +4047,24 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 24шт</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК CHICKEN 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>8009470386050</t>
+        </is>
+      </c>
       <c r="D131" t="n">
-        <v>301</v>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>980</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="132">
@@ -3333,18 +4075,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 30шт</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>8009470005685</t>
+        </is>
+      </c>
       <c r="D132" t="n">
-        <v>323</v>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>659</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>143.59</v>
       </c>
     </row>
     <row r="133">
@@ -3355,18 +4103,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 36шт</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>8009470386067</t>
+        </is>
+      </c>
       <c r="D133" t="n">
-        <v>458</v>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>914</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>34.88</v>
       </c>
     </row>
     <row r="134">
@@ -3377,18 +4131,24 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 06шт</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>8009470386067</t>
+        </is>
+      </c>
       <c r="D134" t="n">
-        <v>376</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>569</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>34.88</v>
       </c>
     </row>
     <row r="135">
@@ -3399,18 +4159,24 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 12шт</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>8009470386067</t>
+        </is>
+      </c>
       <c r="D135" t="n">
-        <v>388</v>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>897</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>34.88</v>
       </c>
     </row>
     <row r="136">
@@ -3421,18 +4187,24 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 18шт</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 06шт</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>8009470387859</t>
+        </is>
+      </c>
       <c r="D136" t="n">
-        <v>357</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>836</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="137">
@@ -3443,18 +4215,24 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 24шт</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 12шт</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>8009470387859</t>
+        </is>
+      </c>
       <c r="D137" t="n">
-        <v>332</v>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>986</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="138">
@@ -3465,18 +4243,24 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 30шт</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 18шт</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>8009470387859</t>
+        </is>
+      </c>
       <c r="D138" t="n">
-        <v>457</v>
-      </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>902</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="139">
@@ -3487,18 +4271,24 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 36шт</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 24шт</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>8009470387859</t>
+        </is>
+      </c>
       <c r="D139" t="n">
-        <v>435</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>784</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="140">
@@ -3509,18 +4299,24 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 12шт</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 30шт</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>8009470387859</t>
+        </is>
+      </c>
       <c r="D140" t="n">
-        <v>361</v>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>648</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="141">
@@ -3531,18 +4327,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 24шт</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Beef Liver 415г 36шт</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>8009470387859</t>
+        </is>
+      </c>
       <c r="D141" t="n">
-        <v>440</v>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>961</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="142">
@@ -3553,18 +4355,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 36шт</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 03шт</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>8009470387910</t>
+        </is>
+      </c>
       <c r="D142" t="n">
-        <v>344</v>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>777</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="143">
@@ -3575,18 +4383,24 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г 48шт</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 06шт</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>8009470387910</t>
+        </is>
+      </c>
       <c r="D143" t="n">
-        <v>369</v>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>910</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="144">
@@ -3597,18 +4411,24 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 12шт</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 09шт</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>8009470387910</t>
+        </is>
+      </c>
       <c r="D144" t="n">
-        <v>339</v>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>532</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="145">
@@ -3619,18 +4439,24 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 24шт</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 1250г 12шт</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>8009470387910</t>
+        </is>
+      </c>
       <c r="D145" t="n">
-        <v>338</v>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>688</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="146">
@@ -3641,18 +4467,24 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 36шт</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ВЗР СР Lamb Rice 15кг 1шт</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>8009470386159</t>
+        </is>
+      </c>
       <c r="D146" t="n">
-        <v>406</v>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>888</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>135.78</v>
       </c>
     </row>
     <row r="147">
@@ -3663,18 +4495,24 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Lamb 150г 48шт</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 06шт</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>8009470387866</t>
+        </is>
+      </c>
       <c r="D147" t="n">
-        <v>336</v>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="148">
@@ -3685,18 +4523,24 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 12шт</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 12шт</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>8009470387866</t>
+        </is>
+      </c>
       <c r="D148" t="n">
-        <v>377</v>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>568</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="149">
@@ -3707,18 +4551,24 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 24шт</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 18шт</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>8009470387866</t>
+        </is>
+      </c>
       <c r="D149" t="n">
-        <v>427</v>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>883</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="150">
@@ -3729,18 +4579,24 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 36шт</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 24шт</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>8009470387866</t>
+        </is>
+      </c>
       <c r="D150" t="n">
-        <v>321</v>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>899</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="151">
@@ -3751,18 +4607,24 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Turkey Light 150г 48шт</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 30шт</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>8009470387866</t>
+        </is>
+      </c>
       <c r="D151" t="n">
-        <v>324</v>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>681</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="152">
@@ -3773,18 +4635,24 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ Chicken Turk 415г 36шт</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>8009470387866</t>
+        </is>
+      </c>
       <c r="D152" t="n">
-        <v>385</v>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>690</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="153">
@@ -3795,18 +4663,24 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 20кг 1шт</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>8009470005623</t>
+        </is>
+      </c>
       <c r="D153" t="n">
-        <v>420</v>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>820</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>153.71</v>
       </c>
     </row>
     <row r="154">
@@ -3817,18 +4691,24 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>8009470386043</t>
+        </is>
+      </c>
       <c r="D154" t="n">
-        <v>331</v>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>910</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>30.96</v>
       </c>
     </row>
     <row r="155">
@@ -3839,18 +4719,24 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Beef Ham 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>8009470386043</t>
+        </is>
+      </c>
       <c r="D155" t="n">
-        <v>447</v>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>729</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>30.96</v>
       </c>
     </row>
     <row r="156">
@@ -3861,18 +4747,24 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>8009470386043</t>
+        </is>
+      </c>
       <c r="D156" t="n">
-        <v>302</v>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>540</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>30.96</v>
       </c>
     </row>
     <row r="157">
@@ -3883,18 +4775,24 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 15кг 1шт</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>8009470386241</t>
+        </is>
+      </c>
       <c r="D157" t="n">
-        <v>352</v>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>581</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>144.53</v>
       </c>
     </row>
     <row r="158">
@@ -3905,18 +4803,24 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 1шт</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>8009470386005</t>
+        </is>
+      </c>
       <c r="D158" t="n">
-        <v>387</v>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>821</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>33.61</v>
       </c>
     </row>
     <row r="159">
@@ -3927,18 +4831,24 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ВЗР ВСЕ Wild 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 2шт</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>8009470386005</t>
+        </is>
+      </c>
       <c r="D159" t="n">
-        <v>396</v>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>699</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>33.61</v>
       </c>
     </row>
     <row r="160">
@@ -3949,18 +4859,24 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Puppy TUNA RICE 3кг 3шт</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>8009470386005</t>
+        </is>
+      </c>
       <c r="D160" t="n">
-        <v>356</v>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>665</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>33.61</v>
       </c>
     </row>
     <row r="161">
@@ -3971,18 +4887,24 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
       <c r="D161" t="n">
-        <v>431</v>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>729</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="162">
@@ -3993,18 +4915,24 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
       <c r="D162" t="n">
-        <v>348</v>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>746</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="163">
@@ -4015,18 +4943,24 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 48шт</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
       <c r="D163" t="n">
-        <v>409</v>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>533</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="164">
@@ -4037,18 +4971,24 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 12шт</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ МОЛ ВСЕ Turkey 100г 48шт</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>8009470300636</t>
+        </is>
+      </c>
       <c r="D164" t="n">
-        <v>360</v>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>761</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="165">
@@ -4059,18 +4999,24 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 24шт</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 12шт</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>8009470300643</t>
+        </is>
+      </c>
       <c r="D165" t="n">
-        <v>375</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>925</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="166">
@@ -4081,18 +5027,24 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 36шт</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 24шт</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>8009470300643</t>
+        </is>
+      </c>
       <c r="D166" t="n">
-        <v>400</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+        <v>699</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="167">
@@ -4103,18 +5055,52 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 36шт</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>8009470300643</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>728</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ФБС Боровляны ООО (1020001420895000)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г 48шт</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="n">
-        <v>379</v>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>8009470300643</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>658</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Заполнены</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>
